--- a/data/trans_orig/IP07A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BA3B49-8503-4EAC-9C0C-0B564D33F936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05120F10-861A-49F4-B9E6-9BA773FBAD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41D91CCD-7301-4FF4-B958-ACB573CCEF79}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEC3F88B-0B8D-4157-B213-040695BB147F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="848">
   <si>
     <t>Menores según frecuencia de sentirse triste en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -98,13 +98,13 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>32,15%</t>
+    <t>33,48%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>16,79%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -113,2500 +113,2476 @@
     <t>49,82%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>45,91%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>18,61%</t>
+    <t>18,91%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
 </sst>
 </file>
@@ -3018,7 +2994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED36A716-155C-4541-9035-606A5D01C212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6EE253-03F2-413A-A70C-E9D188D2DCC0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4186,10 +4162,10 @@
         <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -4198,13 +4174,13 @@
         <v>19237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4195,13 @@
         <v>21536</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -4234,13 +4210,13 @@
         <v>22366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -4249,13 +4225,13 @@
         <v>43901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,10 +4246,10 @@
         <v>35981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>147</v>
@@ -4374,13 +4350,13 @@
         <v>649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4395,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4404,13 +4380,13 @@
         <v>2162</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4440,13 +4416,13 @@
         <v>1502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4455,13 +4431,13 @@
         <v>1502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4691,10 @@
         <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4709,13 @@
         <v>1365</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -4850,13 +4826,13 @@
         <v>103900</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>325</v>
@@ -4865,13 +4841,13 @@
         <v>213685</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4862,13 @@
         <v>185710</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>233</v>
@@ -4901,13 +4877,13 @@
         <v>159525</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M38" s="7">
         <v>512</v>
@@ -4999,7 +4975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3673A1FE-4B71-4AD4-8068-85EC1E7739D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE09FAB-9D5B-485D-82B9-835B08067CEA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5360,10 +5336,10 @@
         <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5407,13 @@
         <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5446,13 +5422,13 @@
         <v>916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5461,13 +5437,13 @@
         <v>2325</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5458,13 @@
         <v>1279</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5497,13 +5473,13 @@
         <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5512,13 +5488,13 @@
         <v>1940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5509,13 @@
         <v>9902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5548,13 +5524,13 @@
         <v>7256</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -5563,13 +5539,13 @@
         <v>17158</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5560,13 @@
         <v>19396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5599,13 +5575,13 @@
         <v>19915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -5614,13 +5590,13 @@
         <v>39311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5611,13 @@
         <v>26187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5650,13 +5626,13 @@
         <v>24935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -5665,13 +5641,13 @@
         <v>51122</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5754,13 +5730,13 @@
         <v>3960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5769,10 +5745,10 @@
         <v>3960</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>307</v>
@@ -5805,10 +5781,10 @@
         <v>3793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>311</v>
@@ -5877,7 +5853,7 @@
         <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5868,13 @@
         <v>34126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -5928,7 +5904,7 @@
         <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5919,13 @@
         <v>41913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -5958,13 +5934,13 @@
         <v>41386</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -5973,10 +5949,10 @@
         <v>83300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>339</v>
@@ -6068,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -6077,13 +6053,13 @@
         <v>1800</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6074,13 @@
         <v>2331</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6113,13 +6089,13 @@
         <v>1944</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6128,10 +6104,10 @@
         <v>4275</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>352</v>
@@ -6218,10 +6194,10 @@
         <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -6230,13 +6206,13 @@
         <v>44808</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6227,13 @@
         <v>32488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6266,13 +6242,13 @@
         <v>24314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6281,13 +6257,13 @@
         <v>56802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6331,13 @@
         <v>1544</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6370,13 +6346,13 @@
         <v>594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6388,10 +6364,10 @@
         <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6382,13 @@
         <v>1397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6421,13 +6397,13 @@
         <v>818</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -6436,13 +6412,13 @@
         <v>2215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6433,13 @@
         <v>17855</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6472,13 +6448,13 @@
         <v>14992</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -6487,13 +6463,13 @@
         <v>32848</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6484,13 @@
         <v>23031</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -6523,13 +6499,13 @@
         <v>26228</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -6538,13 +6514,13 @@
         <v>49258</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6535,13 @@
         <v>49303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -6574,13 +6550,13 @@
         <v>48695</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6589,13 +6565,13 @@
         <v>97998</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6639,13 @@
         <v>4098</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -6678,13 +6654,13 @@
         <v>6126</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>313</v>
+        <v>420</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -6693,13 +6669,13 @@
         <v>10224</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6690,13 @@
         <v>5680</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>420</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -6729,13 +6705,13 @@
         <v>7215</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -6744,13 +6720,13 @@
         <v>12896</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>383</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6741,13 @@
         <v>63661</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H36" s="7">
         <v>80</v>
@@ -6780,13 +6756,13 @@
         <v>55717</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M36" s="7">
         <v>172</v>
@@ -6795,13 +6771,13 @@
         <v>119378</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6792,13 @@
         <v>102154</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H37" s="7">
         <v>153</v>
@@ -6831,13 +6807,13 @@
         <v>107365</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M37" s="7">
         <v>301</v>
@@ -6846,13 +6822,13 @@
         <v>209519</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6843,13 @@
         <v>156916</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>337</v>
+        <v>447</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7">
         <v>204</v>
@@ -6882,13 +6858,13 @@
         <v>145565</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M38" s="7">
         <v>433</v>
@@ -6897,13 +6873,13 @@
         <v>302481</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,7 +6956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C6143C-CEC5-42B5-92E9-9BA8EC08AB24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D314D2-C018-4C57-94EB-0E2062D2330C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6997,7 +6973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7110,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7125,7 +7101,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7140,7 +7116,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,7 +7137,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7176,7 +7152,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7191,7 +7167,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7182,13 @@
         <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7221,13 +7197,13 @@
         <v>2863</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7236,13 +7212,13 @@
         <v>3425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7233,13 @@
         <v>6072</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -7272,13 +7248,13 @@
         <v>3351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -7287,13 +7263,13 @@
         <v>9424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,13 +7284,13 @@
         <v>7679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -7323,13 +7299,13 @@
         <v>7712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -7338,13 +7314,13 @@
         <v>15391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,7 +7394,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7433,7 +7409,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7448,7 +7424,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7439,13 @@
         <v>1518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7478,13 +7454,13 @@
         <v>838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7493,13 +7469,13 @@
         <v>2356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,13 +7490,13 @@
         <v>5234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -7529,13 +7505,13 @@
         <v>4570</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -7544,13 +7520,13 @@
         <v>9804</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>492</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7541,13 @@
         <v>15247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -7580,13 +7556,13 @@
         <v>20804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -7595,13 +7571,13 @@
         <v>36051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,13 +7592,13 @@
         <v>37314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -7631,13 +7607,13 @@
         <v>30703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>509</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -7646,13 +7622,13 @@
         <v>68017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7702,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7741,7 +7717,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7756,7 +7732,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7747,13 @@
         <v>5479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7786,13 +7762,13 @@
         <v>2310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>520</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>515</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -7801,13 +7777,13 @@
         <v>7789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7798,13 @@
         <v>8833</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -7837,13 +7813,13 @@
         <v>16821</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -7852,13 +7828,13 @@
         <v>25653</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7873,13 +7849,13 @@
         <v>34452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -7888,13 +7864,13 @@
         <v>36810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -7903,13 +7879,13 @@
         <v>71262</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7900,13 @@
         <v>58885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>538</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -7939,13 +7915,13 @@
         <v>50690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>161</v>
@@ -7954,13 +7930,13 @@
         <v>109574</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +8004,13 @@
         <v>2350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -8043,13 +8019,13 @@
         <v>524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>20</v>
+        <v>553</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -8058,13 +8034,13 @@
         <v>2874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8055,13 @@
         <v>2377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -8100,7 +8076,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -8109,13 +8085,13 @@
         <v>3607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>561</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8106,13 @@
         <v>9385</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -8145,13 +8121,13 @@
         <v>7095</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -8160,13 +8136,13 @@
         <v>16480</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,13 +8157,13 @@
         <v>22485</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -8196,13 +8172,13 @@
         <v>18025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -8211,13 +8187,13 @@
         <v>40510</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,13 +8208,13 @@
         <v>41346</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -8247,13 +8223,13 @@
         <v>44835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -8262,13 +8238,13 @@
         <v>86181</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,13 +8312,13 @@
         <v>1433</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>584</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8351,13 +8327,13 @@
         <v>1547</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8366,13 +8342,13 @@
         <v>2981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>588</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>589</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,13 +8363,13 @@
         <v>1357</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -8402,13 +8378,13 @@
         <v>792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -8417,13 +8393,13 @@
         <v>2149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,13 +8414,13 @@
         <v>11570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8453,13 +8429,13 @@
         <v>22059</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -8468,13 +8444,13 @@
         <v>33629</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>605</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,7 +8641,7 @@
         <v>627</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -8674,13 +8650,13 @@
         <v>5855</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,10 +8671,10 @@
         <v>10732</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>383</v>
+        <v>630</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>631</v>
@@ -8713,10 +8689,10 @@
         <v>632</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -8725,13 +8701,13 @@
         <v>15902</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,13 +8722,13 @@
         <v>35583</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="H36" s="7">
         <v>77</v>
@@ -8761,13 +8737,13 @@
         <v>53408</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="M36" s="7">
         <v>127</v>
@@ -8776,13 +8752,13 @@
         <v>88992</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>642</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,7 +8773,7 @@
         <v>111263</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>30</v>
+        <v>644</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>645</v>
@@ -8961,7 +8937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14241992-2CAD-4438-B196-DADFDFD96130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCAE632-075E-4482-B3A4-6CDF9151DC33}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9166,7 +9142,7 @@
         <v>512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -9193,7 +9169,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>668</v>
+        <v>448</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -9202,13 +9178,13 @@
         <v>835</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>669</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>436</v>
+        <v>668</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -9217,13 +9193,13 @@
         <v>1601</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>671</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9253,13 +9229,13 @@
         <v>3186</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -9268,13 +9244,13 @@
         <v>3186</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9289,13 +9265,13 @@
         <v>5790</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -9304,13 +9280,13 @@
         <v>5235</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -9319,13 +9295,13 @@
         <v>11023</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9393,13 +9369,13 @@
         <v>1833</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>686</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -9408,13 +9384,13 @@
         <v>4231</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>689</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>690</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -9423,13 +9399,13 @@
         <v>6065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>549</v>
+        <v>689</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>691</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,13 +9420,13 @@
         <v>2838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -9459,13 +9435,13 @@
         <v>1704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -9474,13 +9450,13 @@
         <v>4543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>696</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9495,13 +9471,13 @@
         <v>5707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>700</v>
+        <v>635</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9510,13 +9486,13 @@
         <v>717</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -9525,13 +9501,13 @@
         <v>6424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,13 +9522,13 @@
         <v>14188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>704</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -9561,13 +9537,13 @@
         <v>8941</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -9579,10 +9555,10 @@
         <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>711</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9597,13 +9573,13 @@
         <v>44300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -9612,13 +9588,13 @@
         <v>35299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -9627,13 +9603,13 @@
         <v>79599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9701,13 +9677,13 @@
         <v>5476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -9716,13 +9692,13 @@
         <v>1707</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -9731,13 +9707,13 @@
         <v>7183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,13 +9728,13 @@
         <v>1766</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -9767,13 +9743,13 @@
         <v>2356</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -9785,10 +9761,10 @@
         <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,13 +9779,13 @@
         <v>7002</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -9818,13 +9794,13 @@
         <v>3936</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>733</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>669</v>
+        <v>734</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -9860,7 +9836,7 @@
         <v>739</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>740</v>
+        <v>443</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -9869,13 +9845,13 @@
         <v>18175</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>741</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>742</v>
+        <v>498</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -9884,13 +9860,13 @@
         <v>61880</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9905,13 +9881,13 @@
         <v>89978</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>748</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -9920,13 +9896,13 @@
         <v>76064</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>750</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -9935,13 +9911,13 @@
         <v>166043</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>753</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10009,13 +9985,13 @@
         <v>1674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>756</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -10024,13 +10000,13 @@
         <v>937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>757</v>
+        <v>694</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -10039,13 +10015,13 @@
         <v>2610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10066,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -10075,13 +10051,13 @@
         <v>825</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>342</v>
+        <v>758</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -10096,7 +10072,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10111,13 +10087,13 @@
         <v>8745</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>763</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -10126,13 +10102,13 @@
         <v>5387</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -10144,10 +10120,10 @@
         <v>765</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10162,13 +10138,13 @@
         <v>17689</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -10177,13 +10153,13 @@
         <v>19447</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -10192,13 +10168,13 @@
         <v>37136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>21</v>
+        <v>775</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10213,13 +10189,13 @@
         <v>73878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -10228,13 +10204,13 @@
         <v>71881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>779</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M26" s="7">
         <v>168</v>
@@ -10243,13 +10219,13 @@
         <v>145760</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,10 +10296,10 @@
         <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>784</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>785</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -10332,13 +10308,13 @@
         <v>4284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -10347,13 +10323,13 @@
         <v>6838</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>788</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10368,13 +10344,13 @@
         <v>2466</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>784</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>791</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10383,13 +10359,13 @@
         <v>1005</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -10398,13 +10374,13 @@
         <v>3471</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10419,13 +10395,13 @@
         <v>6057</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>797</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -10434,13 +10410,13 @@
         <v>7498</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>800</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -10449,13 +10425,13 @@
         <v>13555</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>737</v>
+        <v>800</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>593</v>
+        <v>801</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10470,13 +10446,13 @@
         <v>17995</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -10485,13 +10461,13 @@
         <v>24360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>805</v>
+        <v>607</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>806</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>807</v>
+        <v>408</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -10500,13 +10476,13 @@
         <v>42355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>808</v>
+        <v>459</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>809</v>
+        <v>276</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10521,13 +10497,13 @@
         <v>63914</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H32" s="7">
         <v>81</v>
@@ -10536,13 +10512,13 @@
         <v>61293</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M32" s="7">
         <v>162</v>
@@ -10551,13 +10527,13 @@
         <v>125208</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10625,13 +10601,13 @@
         <v>11537</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>303</v>
+        <v>733</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -10640,13 +10616,13 @@
         <v>11159</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="M34" s="7">
         <v>25</v>
@@ -10655,13 +10631,13 @@
         <v>22696</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>121</v>
+        <v>759</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10676,13 +10652,13 @@
         <v>7070</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>423</v>
+        <v>758</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -10691,13 +10667,13 @@
         <v>6402</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>829</v>
+        <v>562</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -10706,13 +10682,13 @@
         <v>13472</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>831</v>
+        <v>420</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10727,13 +10703,13 @@
         <v>28277</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -10742,13 +10718,13 @@
         <v>18373</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>836</v>
+        <v>591</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>381</v>
+        <v>830</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>837</v>
+        <v>737</v>
       </c>
       <c r="M36" s="7">
         <v>56</v>
@@ -10757,13 +10733,13 @@
         <v>46650</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>492</v>
+        <v>793</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10778,13 +10754,13 @@
         <v>93577</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="H37" s="7">
         <v>94</v>
@@ -10793,13 +10769,13 @@
         <v>74109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>843</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="M37" s="7">
         <v>201</v>
@@ -10808,10 +10784,10 @@
         <v>167686</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>607</v>
@@ -10829,13 +10805,13 @@
         <v>277861</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="H38" s="7">
         <v>334</v>
@@ -10844,13 +10820,13 @@
         <v>249773</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="M38" s="7">
         <v>664</v>
@@ -10859,13 +10835,13 @@
         <v>527634</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
